--- a/Framework/TestData/Data.xlsx
+++ b/Framework/TestData/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pramod kumar bhatt\eclipse-workspace\Framework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pramod kumar bhatt\git\Framework\Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E4795-B3CE-4D28-B1D3-611AA53D60BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0631EE-3A00-40A5-A787-4F2372994DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>bhattpramod123@gmail.com</t>
   </si>
   <si>
-    <t>Tester</t>
+    <t>Anthology@123</t>
   </si>
 </sst>
 </file>
@@ -367,20 +367,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{009D1EA1-6E02-40A5-9E11-0CF00A469376}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{64466410-2507-4D1E-8C28-D868D8D44692}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
